--- a/biology/Médecine/Maternité_(établissement)/Maternité_(établissement).xlsx
+++ b/biology/Médecine/Maternité_(établissement)/Maternité_(établissement).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maternit%C3%A9_(%C3%A9tablissement)</t>
+          <t>Maternité_(établissement)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maternité est un établissement ou un service spécialisé du secteur de la santé, public ou privé, qui assure le suivi de la grossesse, l'accouchement et les suites de couche de la femme enceinte, ou parturiente, 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maternit%C3%A9_(%C3%A9tablissement)</t>
+          <t>Maternité_(établissement)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, elles sont classées en trois grands groupes :
 Les maternités ou centres de niveaux 1 assurent la prise en charge des grossesses sans risque identifié et des soins courants aux nouveau-nés. Elles doivent pouvoir prendre en charge immédiatement une détresse néonatale avant le transfert du nouveau-né. Le pédiatre est d’astreinte ;
@@ -520,7 +534,7 @@
 Les centres de niveau 2B sont habilités à prendre en charge des nouveau-nés prématurés nés à un terme supérieur ou égal à 32 semaines semaines d'aménorrhée. Ils doivent disposer d’une unité de soins intensifs située au sein d’une unité de néonatalogie dans le même bâtiment ou à proximité immédiate permettant de réaliser une ventilation non invasive et de bénéficier d’une présence médicale continue sur place.
 Les maternités ou centres de niveau 3 assurent la prise en charge des grossesses à haut risque materno-fœtal. Ils disposent, outre de l’unité de néonatalogie et de soins intensifs, d’une unité de réanimation néonatale assurant en continu la surveillance et les soins des nouveau-nés susceptibles de présenter une détresse grave et/ou nécessitant des soins de réanimation lourds. Les réanimations néonatales prennent en charge les prématurés de moins de 33 semaines et/ou de poids inférieur à 1 500 g, les syndromes apnéiques graves, les  défaillances cardiovasculaires, les iso-immunisations graves, les détresses respiratoires, les convulsions, les syndromes hémorragiques et les malformations.
 (D'après l'ouvrage Actualités en réanimation préhospitalière SAMU et SMUR en périnatalité, 2003)
-Depuis la fin des années 1990, le nombre de maternités en France a diminué de moitié[1].
+Depuis la fin des années 1990, le nombre de maternités en France a diminué de moitié.
 </t>
         </is>
       </c>
